--- a/炸金花概率表.xlsx
+++ b/炸金花概率表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\龙治洲\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA3EBC-3294-407F-AA2B-1A2ED37D2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B1A494-218D-48D3-8DB5-049CD485EA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,6 @@
     <t>炸金花概率表(一副牌+无王)</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>组合数</t>
-  </si>
-  <si>
-    <t>概率</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -69,7 +60,7 @@
     <t>(非顺)金花</t>
   </si>
   <si>
-    <t>(非金)顺子</t>
+    <t>(非金花)顺子</t>
   </si>
   <si>
     <t>对子</t>
@@ -124,14 +115,26 @@
       </rPr>
       <t>随机到一次</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>组 合 数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>概   率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>类   型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -148,13 +151,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -322,14 +318,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,43 +333,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,364 +594,364 @@
   </sheetPr>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="2">
+      <c r="B3" s="8"/>
+      <c r="C3" s="1">
         <v>22100</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <f t="shared" ref="D3:D15" si="0">C3/C$3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G15" si="1">C$3/C3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="3">
+      <c r="A4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="2">
         <v>60</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <f t="shared" si="0"/>
         <v>2.7149321266968325E-3</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10">
         <f t="shared" si="1"/>
         <v>368.33333333333331</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>1.8099547511312217E-4</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <f>(C5+C6)/C$3</f>
         <v>2.352941176470588E-3</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <f>SUM(C5:C10)/C$3</f>
-        <v>9.0226244343891399E-2</v>
-      </c>
-      <c r="G5" s="6">
+        <v>0.25610859728506785</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>5525</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>C$3/(C5+C6)</f>
         <v>425</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <f>C$3/SUM(C5:C10)</f>
-        <v>11.083249749247743</v>
+        <v>3.9045936395759719</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
         <v>48</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>2.1719457013574662E-3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="6">
+      <c r="E6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>460.41666666666669</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
         <v>48</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>2.1719457013574662E-3</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <f>(C7+C8)/$C3</f>
         <v>5.1764705882352942E-2</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="6">
+      <c r="F7" s="15"/>
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>460.41666666666669</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <f>C$3/(C7+C8)</f>
         <v>19.318181818181817</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1096</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9592760180995475E-2</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>20.164233576642335</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1">
+        <v>720</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>3.2579185520361993E-2</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="21">
+        <f t="shared" si="1"/>
+        <v>30.694444444444443</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1">
+        <v>3744</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16941176470588235</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>5.9027777777777777</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
-        <v>1096</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>4.9592760180995475E-2</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>20.164233576642335</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="2">
-        <v>720</v>
-      </c>
-      <c r="D9" s="15">
-        <f t="shared" si="0"/>
-        <v>3.2579185520361993E-2</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="23">
-        <f t="shared" si="1"/>
-        <v>30.694444444444443</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2">
-        <v>78</v>
-      </c>
-      <c r="D10" s="15">
-        <f t="shared" si="0"/>
-        <v>3.5294117647058825E-3</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="12">
-        <f t="shared" si="1"/>
-        <v>283.33333333333331</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="1">
         <v>3840</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>0.17375565610859728</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13">
+      <c r="E11" s="8"/>
+      <c r="F11" s="11">
         <f>SUM(C11:C14)/C$3</f>
         <v>0.53484162895927601</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <f t="shared" si="1"/>
         <v>5.755208333333333</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="20">
+      <c r="H11" s="8"/>
+      <c r="I11" s="18">
         <f>C$3/SUM(C11:C14)</f>
         <v>1.8697123519458545</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1">
+        <v>3240</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14660633484162897</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>6.8209876543209873</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1">
+        <v>2640</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.11945701357466064</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>8.3712121212121211</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="1">
+        <v>2100</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="0"/>
+        <v>9.5022624434389136E-2</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10">
+        <f t="shared" si="1"/>
+        <v>10.523809523809524</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="2">
-        <v>3240</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>0.14660633484162897</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="12">
-        <f t="shared" si="1"/>
-        <v>6.8209876543209873</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="2">
-        <v>2640</v>
-      </c>
-      <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>0.11945701357466064</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="12">
-        <f t="shared" si="1"/>
-        <v>8.3712121212121211</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="2">
-        <v>2100</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="0"/>
-        <v>9.5022624434389136E-2</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="12">
-        <f t="shared" si="1"/>
-        <v>10.523809523809524</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="1">
         <f>C3-SUM(C4:C14)</f>
-        <v>8226</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="0"/>
-        <v>0.37221719457013575</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>2.6866034524677849</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+        <v>4560</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20633484162895926</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8464912280701755</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -1001,7 +997,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>